--- a/src/analysis_examples/circadb/results_lomb/cosinor_10358547_hmcn1_.xlsx
+++ b/src/analysis_examples/circadb/results_lomb/cosinor_10358547_hmcn1_.xlsx
@@ -589,35 +589,35 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[0.21502203749578097, 0.3576054923087475]</t>
+          <t>[0.2153324172338466, 0.35729511257068186]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>4.101827011382397e-08</v>
+        <v>3.819189275944268e-08</v>
       </c>
       <c r="N2" t="n">
-        <v>4.101827011382397e-08</v>
+        <v>3.819189275944268e-08</v>
       </c>
       <c r="O2" t="n">
         <v>-1.295631805084079</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[-1.58494764505431, -1.0063159651138474]</t>
+          <t>[-1.572368695490387, -1.0188949146777704]</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>6.636195371001463e-09</v>
+        <v>3.086739752689027e-09</v>
       </c>
       <c r="R2" t="n">
-        <v>6.636195371001463e-09</v>
+        <v>3.086739752689027e-09</v>
       </c>
       <c r="S2" t="n">
         <v>0.3855279854444569</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[0.3445939348657422, 0.42646203602317156]</t>
+          <t>[0.34461269289408497, 0.4264432779948288]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -630,10 +630,10 @@
         <v>4.942762762762889</v>
       </c>
       <c r="X2" t="n">
-        <v>3.839039039039136</v>
+        <v>3.887027027027125</v>
       </c>
       <c r="Y2" t="n">
-        <v>6.046486486486643</v>
+        <v>5.998498498498654</v>
       </c>
     </row>
   </sheetData>
